--- a/templates/dosen_template.xlsx
+++ b/templates/dosen_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ericanthony/Projects/nodejs-fullstack/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE04AAF7-763E-6A42-BC1F-69002F026773}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F0461A2-3BF9-B948-AF1F-0B8FB3DAD8F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" xr2:uid="{71D497EA-3604-9444-B02E-D894D6915CD7}"/>
+    <workbookView xWindow="4880" yWindow="500" windowWidth="46320" windowHeight="26380" xr2:uid="{71D497EA-3604-9444-B02E-D894D6915CD7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="90">
   <si>
     <t>Dosen 1</t>
   </si>
@@ -291,6 +291,21 @@
   </si>
   <si>
     <t>email</t>
+  </si>
+  <si>
+    <t>fakultas</t>
+  </si>
+  <si>
+    <t>Pendidikan Profesi Psikologi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Profesi Akuntan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Sistem Informasi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Teknik Informatika</t>
   </si>
 </sst>
 </file>
@@ -679,10 +694,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D70C0AF1-D524-C648-87F6-9FE27824C683}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -694,7 +709,7 @@
     <col min="5" max="5" width="37.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>80</v>
       </c>
@@ -708,10 +723,13 @@
         <v>84</v>
       </c>
       <c r="E1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -725,10 +743,13 @@
         <v>48</v>
       </c>
       <c r="E2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -742,10 +763,13 @@
         <v>49</v>
       </c>
       <c r="E3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -759,10 +783,13 @@
         <v>50</v>
       </c>
       <c r="E4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -776,10 +803,13 @@
         <v>51</v>
       </c>
       <c r="E5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F5" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -793,10 +823,13 @@
         <v>52</v>
       </c>
       <c r="E6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F6" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -810,10 +843,13 @@
         <v>53</v>
       </c>
       <c r="E7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F7" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -827,10 +863,13 @@
         <v>54</v>
       </c>
       <c r="E8" t="s">
+        <v>88</v>
+      </c>
+      <c r="F8" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -844,10 +883,13 @@
         <v>55</v>
       </c>
       <c r="E9" t="s">
+        <v>89</v>
+      </c>
+      <c r="F9" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -861,10 +903,13 @@
         <v>56</v>
       </c>
       <c r="E10" t="s">
+        <v>88</v>
+      </c>
+      <c r="F10" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -878,10 +923,13 @@
         <v>57</v>
       </c>
       <c r="E11" t="s">
+        <v>89</v>
+      </c>
+      <c r="F11" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -895,10 +943,13 @@
         <v>58</v>
       </c>
       <c r="E12" t="s">
+        <v>88</v>
+      </c>
+      <c r="F12" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -912,10 +963,13 @@
         <v>59</v>
       </c>
       <c r="E13" t="s">
+        <v>89</v>
+      </c>
+      <c r="F13" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -929,10 +983,13 @@
         <v>60</v>
       </c>
       <c r="E14" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -946,10 +1003,13 @@
         <v>61</v>
       </c>
       <c r="E15" t="s">
+        <v>89</v>
+      </c>
+      <c r="F15" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -963,10 +1023,13 @@
         <v>62</v>
       </c>
       <c r="E16" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -980,6 +1043,9 @@
         <v>63</v>
       </c>
       <c r="E17" t="s">
+        <v>89</v>
+      </c>
+      <c r="F17" t="s">
         <v>79</v>
       </c>
     </row>

--- a/templates/dosen_template.xlsx
+++ b/templates/dosen_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ericanthony/Projects/nodejs-fullstack/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F0461A2-3BF9-B948-AF1F-0B8FB3DAD8F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CD7900A-241A-3341-9183-D17E0E16B6A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4880" yWindow="500" windowWidth="46320" windowHeight="26380" xr2:uid="{71D497EA-3604-9444-B02E-D894D6915CD7}"/>
+    <workbookView xWindow="4440" yWindow="760" windowWidth="25800" windowHeight="17580" xr2:uid="{71D497EA-3604-9444-B02E-D894D6915CD7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -293,19 +293,19 @@
     <t>email</t>
   </si>
   <si>
-    <t>fakultas</t>
-  </si>
-  <si>
     <t>Pendidikan Profesi Psikologi</t>
   </si>
   <si>
-    <t xml:space="preserve">	Profesi Akuntan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	Sistem Informasi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	Teknik Informatika</t>
+    <t>prodi</t>
+  </si>
+  <si>
+    <t>Teknik Informatika</t>
+  </si>
+  <si>
+    <t>Profesi Akuntan</t>
+  </si>
+  <si>
+    <t>Sistem Informasi</t>
   </si>
 </sst>
 </file>
@@ -697,7 +697,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -723,7 +723,7 @@
         <v>84</v>
       </c>
       <c r="E1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F1" t="s">
         <v>82</v>
@@ -743,7 +743,7 @@
         <v>48</v>
       </c>
       <c r="E2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F2" t="s">
         <v>64</v>
@@ -763,7 +763,7 @@
         <v>49</v>
       </c>
       <c r="E3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F3" t="s">
         <v>65</v>
@@ -783,7 +783,7 @@
         <v>50</v>
       </c>
       <c r="E4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F4" t="s">
         <v>66</v>
@@ -803,7 +803,7 @@
         <v>51</v>
       </c>
       <c r="E5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F5" t="s">
         <v>67</v>
@@ -823,7 +823,7 @@
         <v>52</v>
       </c>
       <c r="E6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F6" t="s">
         <v>68</v>
@@ -843,7 +843,7 @@
         <v>53</v>
       </c>
       <c r="E7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F7" t="s">
         <v>69</v>
@@ -863,7 +863,7 @@
         <v>54</v>
       </c>
       <c r="E8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F8" t="s">
         <v>70</v>
@@ -883,7 +883,7 @@
         <v>55</v>
       </c>
       <c r="E9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F9" t="s">
         <v>71</v>
@@ -903,7 +903,7 @@
         <v>56</v>
       </c>
       <c r="E10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F10" t="s">
         <v>72</v>
@@ -923,7 +923,7 @@
         <v>57</v>
       </c>
       <c r="E11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F11" t="s">
         <v>73</v>
@@ -943,7 +943,7 @@
         <v>58</v>
       </c>
       <c r="E12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F12" t="s">
         <v>74</v>
@@ -963,7 +963,7 @@
         <v>59</v>
       </c>
       <c r="E13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F13" t="s">
         <v>75</v>
@@ -983,7 +983,7 @@
         <v>60</v>
       </c>
       <c r="E14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F14" t="s">
         <v>76</v>
@@ -1003,7 +1003,7 @@
         <v>61</v>
       </c>
       <c r="E15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F15" t="s">
         <v>77</v>
@@ -1023,7 +1023,7 @@
         <v>62</v>
       </c>
       <c r="E16" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F16" t="s">
         <v>78</v>
@@ -1043,7 +1043,7 @@
         <v>63</v>
       </c>
       <c r="E17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F17" t="s">
         <v>79</v>
